--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -4,15 +4,38 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>actiTIME - Enter Time-Track</t>
+  </si>
+  <si>
+    <t>eTitle</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -342,12 +365,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="26.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -358,7 +409,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -370,7 +421,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="InvalidLogin" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>Username</t>
   </si>
@@ -34,6 +34,19 @@
   </si>
   <si>
     <t>eTitle</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>emsg</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Username or Password is invalid. Please try again.</t>
   </si>
 </sst>
 </file>
@@ -57,7 +70,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -65,12 +78,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,7 +399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -405,12 +437,69 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="54.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="43.2">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>123</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="43.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>456</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="43.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="43.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
